--- a/lantai_4_aerosol.xlsx
+++ b/lantai_4_aerosol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PROJECTS\Python Projects\war_kedokteran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F75805B-AE87-4684-A887-4831A028E6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EFBB9F-0816-49F2-B31C-4B3EEE97DA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>nama</t>
   </si>
@@ -53,13 +53,13 @@
     <t>ISI_TINDAKAN_DISINI</t>
   </si>
   <si>
-    <t>Dimas</t>
-  </si>
-  <si>
     <t>Periodonsia</t>
   </si>
   <si>
-    <t>Protodonsia</t>
+    <t>Prostodonsia</t>
+  </si>
+  <si>
+    <t>Fake</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -950,18 +950,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -993,7 +1027,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1061,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1035,7 +1069,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
